--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hsp90aa1-Cftr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hsp90aa1-Cftr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>94.45181500000001</v>
+        <v>63.73255033333334</v>
       </c>
       <c r="H2">
-        <v>283.355445</v>
+        <v>191.197651</v>
       </c>
       <c r="I2">
-        <v>0.1457155743604623</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="J2">
-        <v>0.1590548236774281</v>
+        <v>0.1059076069828809</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0303145</v>
+        <v>0.0110905</v>
       </c>
       <c r="N2">
-        <v>0.060629</v>
+        <v>0.022181</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.8632595458175</v>
+        <v>0.7068258494718334</v>
       </c>
       <c r="R2">
-        <v>17.179557274905</v>
+        <v>4.240955096831</v>
       </c>
       <c r="S2">
-        <v>0.1457155743604623</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="T2">
-        <v>0.1590548236774281</v>
+        <v>0.1059076069828809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>376.250897</v>
       </c>
       <c r="I3">
-        <v>0.1934870726059072</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="J3">
-        <v>0.2111994709712006</v>
+        <v>0.2084117242969288</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.0303145</v>
+        <v>0.0110905</v>
       </c>
       <c r="N3">
-        <v>0.060629</v>
+        <v>0.022181</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.801952605702167</v>
+        <v>1.390936857726167</v>
       </c>
       <c r="R3">
-        <v>22.811715634213</v>
+        <v>8.345621146357001</v>
       </c>
       <c r="S3">
-        <v>0.1934870726059072</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="T3">
-        <v>0.2111994709712006</v>
+        <v>0.2084117242969288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>129.124439</v>
+        <v>184.1540323333334</v>
       </c>
       <c r="H4">
-        <v>387.373317</v>
+        <v>552.4620970000001</v>
       </c>
       <c r="I4">
-        <v>0.1992067785341921</v>
+        <v>0.2808114468489298</v>
       </c>
       <c r="J4">
-        <v>0.2174427762726615</v>
+        <v>0.3060180830465028</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.0303145</v>
+        <v>0.0110905</v>
       </c>
       <c r="N4">
-        <v>0.060629</v>
+        <v>0.022181</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.914342806065501</v>
+        <v>2.042360295592834</v>
       </c>
       <c r="R4">
-        <v>23.486056836393</v>
+        <v>12.254161773557</v>
       </c>
       <c r="S4">
-        <v>0.1992067785341921</v>
+        <v>0.2808114468489298</v>
       </c>
       <c r="T4">
-        <v>0.2174427762726615</v>
+        <v>0.3060180830465028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>163.083542</v>
+        <v>162.052406</v>
       </c>
       <c r="H5">
-        <v>326.167084</v>
+        <v>324.104812</v>
       </c>
       <c r="I5">
-        <v>0.2515971979074048</v>
+        <v>0.2471092813859239</v>
       </c>
       <c r="J5">
-        <v>0.183086116573482</v>
+        <v>0.1795271274047008</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0303145</v>
+        <v>0.0110905</v>
       </c>
       <c r="N5">
-        <v>0.060629</v>
+        <v>0.022181</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>4.943796033959</v>
+        <v>1.797242208743</v>
       </c>
       <c r="R5">
-        <v>19.775184135836</v>
+        <v>7.188968834972001</v>
       </c>
       <c r="S5">
-        <v>0.2515971979074048</v>
+        <v>0.2471092813859239</v>
       </c>
       <c r="T5">
-        <v>0.183086116573482</v>
+        <v>0.1795271274047008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.1162363333333</v>
+        <v>120.4365156666667</v>
       </c>
       <c r="H6">
-        <v>408.348709</v>
+        <v>361.309547</v>
       </c>
       <c r="I6">
-        <v>0.2099933765920337</v>
+        <v>0.1836503485114226</v>
       </c>
       <c r="J6">
-        <v>0.2292168125052277</v>
+        <v>0.2001354582689865</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.0303145</v>
+        <v>0.0110905</v>
       </c>
       <c r="N6">
-        <v>0.060629</v>
+        <v>0.022181</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>4.126295646326833</v>
+        <v>1.335701177001167</v>
       </c>
       <c r="R6">
-        <v>24.757773877961</v>
+        <v>8.014207062006999</v>
       </c>
       <c r="S6">
-        <v>0.2099933765920337</v>
+        <v>0.1836503485114226</v>
       </c>
       <c r="T6">
-        <v>0.2292168125052277</v>
+        <v>0.2001354582689865</v>
       </c>
     </row>
   </sheetData>
